--- a/helper/common_name_lists_ART2.xlsx
+++ b/helper/common_name_lists_ART2.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ship_names" sheetId="1" r:id="rId1"/>
+    <sheet name="planet_names" sheetId="2" r:id="rId2"/>
+    <sheet name="character_names" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="255">
   <si>
     <t>Rit</t>
   </si>
@@ -487,6 +489,430 @@
   </si>
   <si>
     <t>祖德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zaldr</t>
+  </si>
+  <si>
+    <t>Takren</t>
+  </si>
+  <si>
+    <t>Patred</t>
+  </si>
+  <si>
+    <t>Kadnaq</t>
+  </si>
+  <si>
+    <t>Qalp</t>
+  </si>
+  <si>
+    <t>Tackr</t>
+  </si>
+  <si>
+    <t>Palod</t>
+  </si>
+  <si>
+    <t>Yadir</t>
+  </si>
+  <si>
+    <t>Raxl</t>
+  </si>
+  <si>
+    <t>Kawned</t>
+  </si>
+  <si>
+    <t>Paqod</t>
+  </si>
+  <si>
+    <t>Ladnz</t>
+  </si>
+  <si>
+    <t>Gaqts</t>
+  </si>
+  <si>
+    <t>Zajet</t>
+  </si>
+  <si>
+    <t>Raqqa</t>
+  </si>
+  <si>
+    <t>Qallid</t>
+  </si>
+  <si>
+    <t>Mapt</t>
+  </si>
+  <si>
+    <t>Vayi</t>
+  </si>
+  <si>
+    <t>Watre</t>
+  </si>
+  <si>
+    <t>Pangit</t>
+  </si>
+  <si>
+    <t>Xagh</t>
+  </si>
+  <si>
+    <t>Tavd</t>
+  </si>
+  <si>
+    <t>Gand</t>
+  </si>
+  <si>
+    <t>Ladt</t>
+  </si>
+  <si>
+    <t>Yaw</t>
+  </si>
+  <si>
+    <t>Pagh</t>
+  </si>
+  <si>
+    <t>Rabb</t>
+  </si>
+  <si>
+    <t>Vurl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阔柏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阔恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>噶斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扎奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扎格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阔里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维伊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如柏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扎德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏洛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Igvi</t>
+  </si>
+  <si>
+    <t>Inor</t>
+  </si>
+  <si>
+    <t>Azut</t>
+  </si>
+  <si>
+    <t>Wil</t>
+  </si>
+  <si>
+    <t>Leinad</t>
+  </si>
+  <si>
+    <t>Riem</t>
+  </si>
+  <si>
+    <t>Kul</t>
+  </si>
+  <si>
+    <t>Tan</t>
+  </si>
+  <si>
+    <t>Ryg</t>
+  </si>
+  <si>
+    <t>Arng</t>
+  </si>
+  <si>
+    <t>Pox</t>
+  </si>
+  <si>
+    <t>Ruz</t>
+  </si>
+  <si>
+    <t>Lern</t>
+  </si>
+  <si>
+    <t>Inul</t>
+  </si>
+  <si>
+    <t>Reil</t>
+  </si>
+  <si>
+    <t>Yterd</t>
+  </si>
+  <si>
+    <t>Wox</t>
+  </si>
+  <si>
+    <t>Sarw</t>
+  </si>
+  <si>
+    <t>Obr</t>
+  </si>
+  <si>
+    <t>Fulg</t>
+  </si>
+  <si>
+    <t>Thy</t>
+  </si>
+  <si>
+    <t>Lend</t>
+  </si>
+  <si>
+    <t>Pilx</t>
+  </si>
+  <si>
+    <t>Wun</t>
+  </si>
+  <si>
+    <t>Few</t>
+  </si>
+  <si>
+    <t>Pwot</t>
+  </si>
+  <si>
+    <t>Kuld</t>
+  </si>
+  <si>
+    <t>Tazn</t>
+  </si>
+  <si>
+    <t>Zuf</t>
+  </si>
+  <si>
+    <t>Saz</t>
+  </si>
+  <si>
+    <t>Luyt</t>
+  </si>
+  <si>
+    <t>Keq</t>
+  </si>
+  <si>
+    <t>Qoid</t>
+  </si>
+  <si>
+    <t>勒维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因欧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿祖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里那</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚祖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勒恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因鲁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏克斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃克斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夫格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮克斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库勒德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔兹恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨兹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧德</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -814,7 +1240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
@@ -1364,4 +1790,526 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" sqref="O10:P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>216</v>
+      </c>
+      <c r="B27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>218</v>
+      </c>
+      <c r="B29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>